--- a/PredictionData.xlsx
+++ b/PredictionData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lital\Documents\Git\Stocker-server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E7570CD-83E3-43E4-8ADA-AA6EFC4224AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09262094-8EA5-41DB-83BF-F492A0FD2C00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -930,7 +930,7 @@
   <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
